--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>Positive</t>
   </si>
@@ -387,10 +387,16 @@
     <t>returns</t>
   </si>
   <si>
+    <t>(a) BTC’s daily close price log-change (i.e., log-return</t>
+  </si>
+  <si>
     <t>drxon</t>
   </si>
   <si>
     <t>direction</t>
+  </si>
+  <si>
+    <t>(b) directionality of log-returns drxon</t>
   </si>
   <si>
     <t>log_vol</t>
@@ -594,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -604,6 +610,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3409,7 +3418,9 @@
       <c r="C2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3436,12 +3447,14 @@
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3468,10 +3481,10 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3499,13 +3512,13 @@
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3534,10 +3547,10 @@
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3566,10 +3579,10 @@
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3598,10 +3611,10 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3630,10 +3643,10 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3662,10 +3675,10 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3694,10 +3707,10 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3726,10 +3739,10 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3758,10 +3771,10 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3790,10 +3803,10 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3822,10 +3835,10 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3853,13 +3866,13 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3888,10 +3901,10 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3920,10 +3933,10 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3952,10 +3965,10 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3984,10 +3997,10 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4016,10 +4029,10 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4048,10 +4061,10 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4080,10 +4093,10 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4112,10 +4125,10 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4144,10 +4157,10 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4176,7 +4189,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4206,7 +4219,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4236,7 +4249,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4266,7 +4279,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4296,7 +4309,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4326,7 +4339,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4356,10 +4369,10 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -4388,7 +4401,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
